--- a/K9HZ_Antenna_Tuner/K9HZ_Antenna_Tuner_BOMs/K9HZ_100W_Antenna_Tuner_BOM_012826.xlsx
+++ b/K9HZ_Antenna_Tuner/K9HZ_Antenna_Tuner_BOMs/K9HZ_100W_Antenna_Tuner_BOM_012826.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\K9HZ\K9HZ_Antenna_Tuner\K9HZ_Antenna_Tuner_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64D84B6-5963-4298-968B-C54722A03AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A40D9-36BB-4EA3-903B-376B4EA917D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D1A16F5F-C85E-4895-AC46-7D6591F3EE2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{D1A16F5F-C85E-4895-AC46-7D6591F3EE2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="154">
   <si>
     <t>Quantity</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>338-1131-ND</t>
+  </si>
+  <si>
+    <t>26T of #20 wire on 2x T68-2 cores.</t>
   </si>
 </sst>
 </file>
@@ -1004,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64CA2FD-9AB7-4511-ADA9-9F741C153CAC}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2122,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6AC5DA0-D404-494E-BB88-68D3D53C08A3}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2436,7 +2439,7 @@
         <v>53</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -2463,7 +2466,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>137</v>
